--- a/biology/Botanique/Solanum_simplicissimum/Solanum_simplicissimum.xlsx
+++ b/biology/Botanique/Solanum_simplicissimum/Solanum_simplicissimum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Solanum simplicissimum est une espèce de plante herbacée tubéreuse de la famille des Solanaceae. C'est une espèce endémique rare des montagnes du Pérou. Elle est apparentée à la pomme de terre cultivée, mais contrairement à celle-ci, elle est diploïde (2n = 2x = 24).
-Nom vernaculaire : ñame (en espagnol du Pérou)[1].
+Nom vernaculaire : ñame (en espagnol du Pérou).
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Solanum simplicissimum est une espèce endémique du Pérou dont l'aire de répartition est limitée à la région cisandine du département de Lima.
-Elle croit entre 1600 et 2600 mètres d'altitude dans des milieux xérophytiques, souvent associée à des Cactaceae, Bromeliaceae et diverses herbacées parmi lesquelles Solanum medians (autre pomme de terre sauvage de la section Petota) et Solanum pimpinellifolium (tomate à petits fruits)[2].
+Elle croit entre 1600 et 2600 mètres d'altitude dans des milieux xérophytiques, souvent associée à des Cactaceae, Bromeliaceae et diverses herbacées parmi lesquelles Solanum medians (autre pomme de terre sauvage de la section Petota) et Solanum pimpinellifolium (tomate à petits fruits).
 </t>
         </is>
       </c>
